--- a/src/main/resources/template-testing.xlsx
+++ b/src/main/resources/template-testing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16236" windowHeight="7860" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16116" windowHeight="7860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -114,13 +114,55 @@
   </si>
   <si>
     <t>iphone xs</t>
+  </si>
+  <si>
+    <t>newentityitem</t>
+  </si>
+  <si>
+    <t>Synonym</t>
+  </si>
+  <si>
+    <t>newEntityTitle</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>empnames</t>
+  </si>
+  <si>
+    <t>vidya</t>
+  </si>
+  <si>
+    <t>template title</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>Internet was slow in my mobile</t>
+  </si>
+  <si>
+    <t>text answer</t>
+  </si>
+  <si>
+    <t>Can you please provide me your mobile number</t>
+  </si>
+  <si>
+    <t>template Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internet </t>
+  </si>
+  <si>
+    <t>Slow Internet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -145,6 +187,12 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -208,7 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -229,6 +277,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -578,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -589,9 +638,13 @@
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="8" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -604,8 +657,29 @@
       <c r="D1" t="s">
         <v>29</v>
       </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -617,6 +691,27 @@
       </c>
       <c r="D2" t="s">
         <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -624,6 +719,7 @@
     <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/template-testing.xlsx
+++ b/src/main/resources/template-testing.xlsx
@@ -3,15 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smaddur\Desktop\Java Project\ChatBotTest\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16116" windowHeight="7860" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16110" windowHeight="7860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M27"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -92,12 +96,6 @@
     <t>Small Talk</t>
   </si>
   <si>
-    <t>abalasubramania@xavient.com</t>
-  </si>
-  <si>
-    <t>Dec@2018</t>
-  </si>
-  <si>
     <t>strEmail</t>
   </si>
   <si>
@@ -152,10 +150,13 @@
     <t>template Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Internet </t>
-  </si>
-  <si>
     <t>Slow Internet</t>
+  </si>
+  <si>
+    <t>smaddur@xavient.com</t>
+  </si>
+  <si>
+    <t>Durgamatha9</t>
   </si>
 </sst>
 </file>
@@ -630,96 +631,99 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
-    <col min="8" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" display="Dec@2018"/>
+    <hyperlink ref="A2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -731,19 +735,19 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.44140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.6640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.5546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.44140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="8" width="10.5546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16" width="9.109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="1025" width="9.109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="10.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16" width="9.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="1025" width="9.140625" style="2" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -793,7 +797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -817,7 +821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -841,7 +845,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -873,7 +877,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -905,7 +909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3</v>
       </c>

--- a/src/main/resources/template-testing.xlsx
+++ b/src/main/resources/template-testing.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -157,6 +157,39 @@
   </si>
   <si>
     <t>Durgamatha9</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>shuffle</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>carousel</t>
+  </si>
+  <si>
+    <t>quick reply</t>
+  </si>
+  <si>
+    <t>https://github.com/resolve123/ChatBotTest</t>
+  </si>
+  <si>
+    <t>internet</t>
+  </si>
+  <si>
+    <t>mobile number please</t>
+  </si>
+  <si>
+    <t>enter query</t>
+  </si>
+  <si>
+    <t>slow internet</t>
   </si>
 </sst>
 </file>
@@ -628,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -645,9 +678,12 @@
     <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -681,8 +717,29 @@
       <c r="K1" t="s">
         <v>38</v>
       </c>
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>42</v>
       </c>
@@ -715,6 +772,18 @@
       </c>
       <c r="K2" s="8" t="s">
         <v>39</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/template-testing.xlsx
+++ b/src/main/resources/template-testing.xlsx
@@ -129,9 +129,6 @@
     <t>empnames</t>
   </si>
   <si>
-    <t>vidya</t>
-  </si>
-  <si>
     <t>template title</t>
   </si>
   <si>
@@ -190,13 +187,16 @@
   </si>
   <si>
     <t>slow internet</t>
+  </si>
+  <si>
+    <t>sandeep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -224,10 +224,25 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -290,7 +305,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -310,8 +325,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -663,127 +679,131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="37" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="7"/>
+    <col min="8" max="8" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="9.140625" style="7"/>
+    <col min="17" max="17" width="22" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="I2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="L2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="R1" t="s">
+      <c r="M2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="7" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R2" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
